--- a/01_Input/00_CO Validation/Mexico - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Mexico - Energy Projects.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27002"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27016"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edgar.gonzalez\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="149" documentId="8_{F2D2D00D-A89C-0A4B-9B24-C268CBE6EBDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{495F9872-D957-4C70-A02A-F543CF46129F}"/>
+  <xr:revisionPtr revIDLastSave="156" documentId="8_{F2D2D00D-A89C-0A4B-9B24-C268CBE6EBDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF764058-9EF8-4E0C-8FA6-AD97307D1E37}"/>
   <bookViews>
     <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11175" xr2:uid="{FE1040E1-1AC7-44EE-934B-383420C1C5D8}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="68">
   <si>
     <t>Project ID</t>
   </si>
@@ -195,6 +195,9 @@
   </si>
   <si>
     <t>indirect beneficiaries (154 (99 women, 55 men)</t>
+  </si>
+  <si>
+    <t>Transport Services</t>
   </si>
   <si>
     <t>Planning project to asset the pontential of technological tranistion in motor taxis to implemtn electric motors in Uman, Yucatán.</t>
@@ -346,7 +349,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -393,12 +396,106 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -451,12 +548,75 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -477,27 +637,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -816,8 +955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FB8CF27-2FE9-4C89-944F-63AF2575BE71}">
   <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:N1048576"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="15"/>
@@ -829,13 +968,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="9" t="s">
@@ -856,7 +995,7 @@
       <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="36" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="17" t="s">
@@ -888,16 +1027,16 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="183" customHeight="1">
-      <c r="A2" s="30">
+      <c r="A2" s="25">
         <v>122398</v>
       </c>
       <c r="B2" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="23">
         <v>50000</v>
       </c>
       <c r="E2" s="13" t="s">
@@ -912,16 +1051,16 @@
       <c r="H2" s="13">
         <v>163</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="34" t="s">
+      <c r="J2" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="35" t="s">
+      <c r="L2" s="22" t="s">
         <v>27</v>
       </c>
       <c r="M2" s="14"/>
@@ -939,10 +1078,10 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="121.5">
-      <c r="A3" s="30"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="12">
+      <c r="A3" s="26"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="23">
         <v>50000</v>
       </c>
       <c r="E3" s="13" t="s">
@@ -955,14 +1094,14 @@
       <c r="H3" s="13">
         <v>30</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="34"/>
-      <c r="K3" s="15" t="s">
+      <c r="J3" s="38"/>
+      <c r="K3" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="L3" s="35"/>
+      <c r="L3" s="22"/>
       <c r="M3" s="14"/>
       <c r="N3" s="16" t="s">
         <v>28</v>
@@ -978,10 +1117,10 @@
       </c>
     </row>
     <row r="4" spans="1:19" ht="91.5">
-      <c r="A4" s="30"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="12">
+      <c r="A4" s="26"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="23">
         <v>4999</v>
       </c>
       <c r="E4" s="13" t="s">
@@ -994,14 +1133,14 @@
       <c r="H4" s="13">
         <v>77</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="34"/>
-      <c r="K4" s="15" t="s">
+      <c r="J4" s="38"/>
+      <c r="K4" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="L4" s="35"/>
+      <c r="L4" s="22"/>
       <c r="M4" s="14"/>
       <c r="N4" s="16" t="s">
         <v>28</v>
@@ -1015,10 +1154,10 @@
       <c r="S4" s="16"/>
     </row>
     <row r="5" spans="1:19" ht="76.5">
-      <c r="A5" s="30"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="12">
+      <c r="A5" s="26"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="23">
         <v>4990</v>
       </c>
       <c r="E5" s="13" t="s">
@@ -1031,14 +1170,14 @@
       <c r="H5" s="13">
         <v>110</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="J5" s="34"/>
-      <c r="K5" s="15" t="s">
+      <c r="J5" s="38"/>
+      <c r="K5" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="L5" s="35"/>
+      <c r="L5" s="22"/>
       <c r="M5" s="14"/>
       <c r="N5" s="16" t="s">
         <v>28</v>
@@ -1052,10 +1191,10 @@
       <c r="S5" s="16"/>
     </row>
     <row r="6" spans="1:19" ht="106.5">
-      <c r="A6" s="30"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="12">
+      <c r="A6" s="26"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="23">
         <v>3992</v>
       </c>
       <c r="E6" s="13" t="s">
@@ -1068,14 +1207,14 @@
       <c r="H6" s="13">
         <v>402</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="J6" s="34"/>
-      <c r="K6" s="15" t="s">
+      <c r="J6" s="38"/>
+      <c r="K6" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="L6" s="35"/>
+      <c r="L6" s="22"/>
       <c r="M6" s="14"/>
       <c r="N6" s="16" t="s">
         <v>28</v>
@@ -1089,10 +1228,10 @@
       <c r="S6" s="16"/>
     </row>
     <row r="7" spans="1:19" ht="60.75">
-      <c r="A7" s="30"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="12">
+      <c r="A7" s="26"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="23">
         <v>4997</v>
       </c>
       <c r="E7" s="13" t="s">
@@ -1105,14 +1244,14 @@
       <c r="H7" s="13">
         <v>400</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="I7" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="J7" s="34"/>
-      <c r="K7" s="15" t="s">
+      <c r="J7" s="38"/>
+      <c r="K7" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="L7" s="35"/>
+      <c r="L7" s="22"/>
       <c r="M7" s="14"/>
       <c r="N7" s="16" t="s">
         <v>28</v>
@@ -1126,10 +1265,10 @@
       <c r="S7" s="16"/>
     </row>
     <row r="8" spans="1:19" ht="91.5">
-      <c r="A8" s="30"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="12">
+      <c r="A8" s="26"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="23">
         <v>50000</v>
       </c>
       <c r="E8" s="13" t="s">
@@ -1142,14 +1281,14 @@
       <c r="H8" s="13">
         <v>14</v>
       </c>
-      <c r="I8" s="13" t="s">
+      <c r="I8" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="J8" s="34"/>
-      <c r="K8" s="15" t="s">
+      <c r="J8" s="38"/>
+      <c r="K8" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="L8" s="35"/>
+      <c r="L8" s="22"/>
       <c r="M8" s="14"/>
       <c r="N8" s="16" t="s">
         <v>28</v>
@@ -1165,10 +1304,10 @@
       </c>
     </row>
     <row r="9" spans="1:19" ht="137.25">
-      <c r="A9" s="30"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="12">
+      <c r="A9" s="26"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="23">
         <v>50000</v>
       </c>
       <c r="E9" s="13" t="s">
@@ -1181,14 +1320,14 @@
       <c r="H9" s="13">
         <v>14</v>
       </c>
-      <c r="I9" s="13" t="s">
+      <c r="I9" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="J9" s="34"/>
-      <c r="K9" s="15" t="s">
+      <c r="J9" s="38"/>
+      <c r="K9" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="L9" s="35"/>
+      <c r="L9" s="22"/>
       <c r="M9" s="14"/>
       <c r="N9" s="16" t="s">
         <v>28</v>
@@ -1204,14 +1343,14 @@
       </c>
     </row>
     <row r="10" spans="1:19" ht="106.5">
-      <c r="A10" s="30"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="12">
+      <c r="A10" s="27"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="23">
         <v>4900</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="F10" s="19" t="s">
         <v>32</v>
@@ -1220,14 +1359,14 @@
       <c r="H10" s="13">
         <v>15</v>
       </c>
-      <c r="I10" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="J10" s="34"/>
-      <c r="K10" s="15" t="s">
+      <c r="I10" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="L10" s="35"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="L10" s="22"/>
       <c r="M10" s="14"/>
       <c r="N10" s="16" t="s">
         <v>28</v>
@@ -1270,7 +1409,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C8B671A-8C37-4451-A595-5721DB11B5D6}">
   <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1342,13 +1481,13 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="183" customHeight="1">
-      <c r="A2" s="30">
+      <c r="A2" s="20">
         <v>122398</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="29"/>
+      <c r="C2" s="42"/>
       <c r="D2" s="12">
         <v>50000</v>
       </c>
@@ -1367,13 +1506,13 @@
       <c r="I2" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="21" t="s">
+      <c r="J2" s="41" t="s">
         <v>25</v>
       </c>
       <c r="K2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="20" t="s">
+      <c r="L2" s="40" t="s">
         <v>27</v>
       </c>
       <c r="M2" s="14"/>
@@ -1391,9 +1530,9 @@
       <c r="S2" s="16"/>
     </row>
     <row r="3" spans="1:19" ht="121.5">
-      <c r="A3" s="30"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="29"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="42"/>
       <c r="D3" s="12">
         <v>50000</v>
       </c>
@@ -1410,11 +1549,11 @@
       <c r="I3" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="21"/>
+      <c r="J3" s="41"/>
       <c r="K3" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="L3" s="20"/>
+      <c r="L3" s="40"/>
       <c r="M3" s="14"/>
       <c r="N3" s="16" t="s">
         <v>36</v>
@@ -1430,9 +1569,9 @@
       <c r="S3" s="16"/>
     </row>
     <row r="4" spans="1:19" ht="91.5">
-      <c r="A4" s="30"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="29"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="42"/>
       <c r="D4" s="12">
         <v>4999</v>
       </c>
@@ -1449,11 +1588,11 @@
       <c r="I4" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="21"/>
+      <c r="J4" s="41"/>
       <c r="K4" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="L4" s="20"/>
+      <c r="L4" s="40"/>
       <c r="M4" s="14"/>
       <c r="N4" s="16"/>
       <c r="O4" s="16" t="s">
@@ -1467,9 +1606,9 @@
       <c r="S4" s="16"/>
     </row>
     <row r="5" spans="1:19" ht="76.5">
-      <c r="A5" s="30"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="29"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="42"/>
       <c r="D5" s="12">
         <v>4990</v>
       </c>
@@ -1486,11 +1625,11 @@
       <c r="I5" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="J5" s="21"/>
+      <c r="J5" s="41"/>
       <c r="K5" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="L5" s="20"/>
+      <c r="L5" s="40"/>
       <c r="M5" s="14"/>
       <c r="N5" s="16"/>
       <c r="O5" s="16" t="s">
@@ -1504,9 +1643,9 @@
       <c r="S5" s="16"/>
     </row>
     <row r="6" spans="1:19" ht="106.5">
-      <c r="A6" s="30"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="29"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="42"/>
       <c r="D6" s="12">
         <v>3992</v>
       </c>
@@ -1523,11 +1662,11 @@
       <c r="I6" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="J6" s="21"/>
+      <c r="J6" s="41"/>
       <c r="K6" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="L6" s="20"/>
+      <c r="L6" s="40"/>
       <c r="M6" s="14"/>
       <c r="N6" s="16"/>
       <c r="O6" s="16" t="s">
@@ -1541,9 +1680,9 @@
       <c r="S6" s="16"/>
     </row>
     <row r="7" spans="1:19" ht="60.75">
-      <c r="A7" s="30"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="29"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="42"/>
       <c r="D7" s="12">
         <v>4997</v>
       </c>
@@ -1560,11 +1699,11 @@
       <c r="I7" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="J7" s="21"/>
+      <c r="J7" s="41"/>
       <c r="K7" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="L7" s="20"/>
+      <c r="L7" s="40"/>
       <c r="M7" s="14"/>
       <c r="N7" s="16"/>
       <c r="O7" s="16" t="s">
@@ -1578,9 +1717,9 @@
       <c r="S7" s="16"/>
     </row>
     <row r="8" spans="1:19" ht="91.5">
-      <c r="A8" s="30"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="29"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="42"/>
       <c r="D8" s="12">
         <v>50000</v>
       </c>
@@ -1597,11 +1736,11 @@
       <c r="I8" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="J8" s="21"/>
+      <c r="J8" s="41"/>
       <c r="K8" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="L8" s="20"/>
+      <c r="L8" s="40"/>
       <c r="M8" s="14"/>
       <c r="N8" s="16" t="s">
         <v>48</v>
@@ -1617,9 +1756,9 @@
       <c r="S8" s="16"/>
     </row>
     <row r="9" spans="1:19" ht="137.25">
-      <c r="A9" s="30"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="29"/>
+      <c r="A9" s="20"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="42"/>
       <c r="D9" s="12">
         <v>50000</v>
       </c>
@@ -1636,11 +1775,11 @@
       <c r="I9" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="J9" s="21"/>
+      <c r="J9" s="41"/>
       <c r="K9" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="L9" s="20"/>
+      <c r="L9" s="40"/>
       <c r="M9" s="14"/>
       <c r="N9" s="16" t="s">
         <v>51</v>
@@ -1656,9 +1795,9 @@
       <c r="S9" s="16"/>
     </row>
     <row r="10" spans="1:19" ht="106.5">
-      <c r="A10" s="30"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="29"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="42"/>
       <c r="D10" s="12">
         <v>4900</v>
       </c>
@@ -1673,13 +1812,13 @@
         <v>15</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="J10" s="21"/>
+        <v>53</v>
+      </c>
+      <c r="J10" s="41"/>
       <c r="K10" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="L10" s="20"/>
+        <v>54</v>
+      </c>
+      <c r="L10" s="40"/>
       <c r="M10" s="14"/>
       <c r="N10" s="16"/>
       <c r="O10" s="16" t="s">
@@ -1724,7 +1863,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E314013B-41F6-4D38-B0FD-CA6AEEC3E13B}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView topLeftCell="C8" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
@@ -1765,14 +1904,14 @@
         <v>9</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="183" customHeight="1">
-      <c r="A2" s="22">
+      <c r="A2" s="43">
         <v>122398</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="45" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="3"/>
@@ -1782,49 +1921,49 @@
       <c r="E2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="26" t="s">
-        <v>55</v>
+      <c r="H2" s="47" t="s">
+        <v>56</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="J2" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="J2" s="49" t="s">
         <v>25</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="121.5">
-      <c r="A3" s="23"/>
-      <c r="B3" s="25"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="46"/>
       <c r="C3" s="3"/>
       <c r="D3" s="6">
         <v>50000</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
+        <v>59</v>
+      </c>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
       <c r="I3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="28"/>
+      <c r="J3" s="49"/>
       <c r="K3" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="91.5">
-      <c r="A4" s="23"/>
-      <c r="B4" s="25"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="46"/>
       <c r="C4" s="3"/>
       <c r="D4" s="6">
         <v>4999</v>
@@ -1832,20 +1971,20 @@
       <c r="E4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
       <c r="I4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="28"/>
+      <c r="J4" s="49"/>
       <c r="K4" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="76.5">
-      <c r="A5" s="23"/>
-      <c r="B5" s="25"/>
+      <c r="A5" s="44"/>
+      <c r="B5" s="46"/>
       <c r="C5" s="3"/>
       <c r="D5" s="6">
         <v>4990</v>
@@ -1853,20 +1992,20 @@
       <c r="E5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
       <c r="I5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J5" s="28"/>
+      <c r="J5" s="49"/>
       <c r="K5" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="106.5">
-      <c r="A6" s="23"/>
-      <c r="B6" s="25"/>
+      <c r="A6" s="44"/>
+      <c r="B6" s="46"/>
       <c r="C6" s="3"/>
       <c r="D6" s="6">
         <v>3992</v>
@@ -1874,20 +2013,20 @@
       <c r="E6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
       <c r="I6" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="J6" s="28"/>
+      <c r="J6" s="49"/>
       <c r="K6" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="60.75">
-      <c r="A7" s="23"/>
-      <c r="B7" s="25"/>
+      <c r="A7" s="44"/>
+      <c r="B7" s="46"/>
       <c r="C7" s="3"/>
       <c r="D7" s="6">
         <v>4997</v>
@@ -1895,20 +2034,20 @@
       <c r="E7" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
       <c r="I7" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="J7" s="28"/>
+      <c r="J7" s="49"/>
       <c r="K7" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="91.5">
-      <c r="A8" s="23"/>
-      <c r="B8" s="25"/>
+      <c r="A8" s="44"/>
+      <c r="B8" s="46"/>
       <c r="C8" s="3"/>
       <c r="D8" s="6">
         <v>50000</v>
@@ -1916,20 +2055,20 @@
       <c r="E8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
       <c r="I8" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="J8" s="28"/>
+      <c r="J8" s="49"/>
       <c r="K8" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="137.25">
-      <c r="A9" s="23"/>
-      <c r="B9" s="25"/>
+      <c r="A9" s="44"/>
+      <c r="B9" s="46"/>
       <c r="C9" s="3"/>
       <c r="D9" s="6">
         <v>50000</v>
@@ -1937,20 +2076,20 @@
       <c r="E9" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
       <c r="I9" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="J9" s="28"/>
+      <c r="J9" s="49"/>
       <c r="K9" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="106.5">
-      <c r="A10" s="23"/>
-      <c r="B10" s="25"/>
+      <c r="A10" s="44"/>
+      <c r="B10" s="46"/>
       <c r="C10" s="3"/>
       <c r="D10" s="6">
         <v>4900</v>
@@ -1958,15 +2097,15 @@
       <c r="E10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
       <c r="I10" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="J10" s="28"/>
+        <v>53</v>
+      </c>
+      <c r="J10" s="49"/>
       <c r="K10" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/01_Input/00_CO Validation/Mexico - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Mexico - Energy Projects.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27016"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edgar.gonzalez\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="156" documentId="8_{F2D2D00D-A89C-0A4B-9B24-C268CBE6EBDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF764058-9EF8-4E0C-8FA6-AD97307D1E37}"/>
+  <xr:revisionPtr revIDLastSave="182" documentId="8_{F2D2D00D-A89C-0A4B-9B24-C268CBE6EBDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B4F09F7-6B93-41A4-96E8-93C2ECD02252}"/>
   <bookViews>
     <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11175" xr2:uid="{FE1040E1-1AC7-44EE-934B-383420C1C5D8}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Projects (3)" sheetId="3" r:id="rId1"/>
     <sheet name="Projects (2)" sheetId="2" r:id="rId2"/>
     <sheet name="Projects" sheetId="1" r:id="rId3"/>
+    <sheet name="Beneficiary Categories" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="111">
   <si>
     <t>Project ID</t>
   </si>
@@ -73,7 +74,7 @@
     <t>Gender (% female)</t>
   </si>
   <si>
-    <t>Category</t>
+    <t>VF or Non-VF</t>
   </si>
   <si>
     <t>Tag</t>
@@ -94,7 +95,13 @@
     <t>Indirect Taxonomy</t>
   </si>
   <si>
-    <t>Indirect Beneficaries</t>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Policy or Regulatory Framework</t>
+  </si>
+  <si>
+    <t>Policy Population</t>
   </si>
   <si>
     <t>Seventh Operational Phase of the GEF Small Grants Programme in Mexico</t>
@@ -103,7 +110,7 @@
     <t>https://open.undp.org/projects/00128385</t>
   </si>
   <si>
-    <t>Agricultural Services</t>
+    <t>Agriculture and Food System</t>
   </si>
   <si>
     <t>Project Specific Indicator 14: Number of community projects implementing renewable and energy-efficient technologies (with at least 40% of the projects with women’s participation)</t>
@@ -122,6 +129,12 @@
     <t>35%</t>
   </si>
   <si>
+    <t>Non-VF</t>
+  </si>
+  <si>
+    <t>Close the gap on energy access</t>
+  </si>
+  <si>
     <t>VF</t>
   </si>
   <si>
@@ -167,45 +180,57 @@
     <t>36%</t>
   </si>
   <si>
+    <t>Capacity Building Training</t>
+  </si>
+  <si>
+    <t>Planning project to design of communitaian energy services networks for support small farmers in Yucatán, México</t>
+  </si>
+  <si>
+    <t>70%</t>
+  </si>
+  <si>
+    <t>Planning project to asses the energy efficiency in Isla Arena, Campeche</t>
+  </si>
+  <si>
+    <t>62.5%</t>
+  </si>
+  <si>
+    <t>Transportation and E-mobility Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy and technological transition to implement  outboard motors of tourism boats in Campeche </t>
+  </si>
+  <si>
+    <t>indirect beneficaries 30 (16 women, 14 men) potential</t>
+  </si>
+  <si>
+    <t>Women and youth entreprenurship, capacity strangthernig programmes and education programmes for energy transition in Quintana Roo</t>
+  </si>
+  <si>
+    <t>64%</t>
+  </si>
+  <si>
+    <t>indirect beneficiaries (154 (99 women, 55 men)</t>
+  </si>
+  <si>
+    <t>Planning project to asset the pontential of technological tranistion in motor taxis to implemtn electric motors in Uman, Yucatán.</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Indirect Beneficaries</t>
+  </si>
+  <si>
+    <t>Agricultural Services</t>
+  </si>
+  <si>
     <t>Capacity Training</t>
   </si>
   <si>
-    <t>Planning project to design of communitaian energy services networks for support small farmers in Yucatán, México</t>
-  </si>
-  <si>
-    <t>70%</t>
-  </si>
-  <si>
-    <t>Planning project to asses the energy efficiency in Isla Arena, Campeche</t>
-  </si>
-  <si>
-    <t>62.5%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy and technological transition to implement  outboard motors of tourism boats in Campeche </t>
-  </si>
-  <si>
-    <t>indirect beneficaries 30 (16 women, 14 men) potential</t>
-  </si>
-  <si>
-    <t>Women and youth entreprenurship, capacity strangthernig programmes and education programmes for energy transition in Quintana Roo</t>
-  </si>
-  <si>
-    <t>64%</t>
-  </si>
-  <si>
-    <t>indirect beneficiaries (154 (99 women, 55 men)</t>
-  </si>
-  <si>
-    <t>Transport Services</t>
-  </si>
-  <si>
-    <t>Planning project to asset the pontential of technological tranistion in motor taxis to implemtn electric motors in Uman, Yucatán.</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
     <t>Comments</t>
   </si>
   <si>
@@ -243,6 +268,111 @@
   </si>
   <si>
     <t>14 dircet benefiaries (14 women)</t>
+  </si>
+  <si>
+    <t>Electricity Access</t>
+  </si>
+  <si>
+    <t>Number of people, disaggregated by sex, who gain access to clean electricity (direct access to electricity, lighting, cooling, etc.) </t>
+  </si>
+  <si>
+    <t>Energy (MW added)</t>
+  </si>
+  <si>
+    <t>Number of MW installed capacity</t>
+  </si>
+  <si>
+    <t>Clean Cooking</t>
+  </si>
+  <si>
+    <t>Number of people who gain access to clean cooking (direct access to clean cook stoves, clean fuels, biomass, etc.).</t>
+  </si>
+  <si>
+    <t>Clean Heating</t>
+  </si>
+  <si>
+    <t>Number of people who gain access to clean heating (direct access to clean electric heaters, clean fuels, etc.).</t>
+  </si>
+  <si>
+    <t>Number of people who gain access to clean, affordable, and sustainable electricity for agricultural and food system activities (direct access to power machines for crop, processing, milling, grinding, de-husking, pressing, canning, sealing and packaging electricity, heating, cooling, solar water pumping for irrigation etc.) </t>
+  </si>
+  <si>
+    <t>Health Services</t>
+  </si>
+  <si>
+    <t>Number of people who gain access to health care facilities (direct access to electricity and heating systems for clinics, hospitals, health centers etc.) </t>
+  </si>
+  <si>
+    <t>Water Services</t>
+  </si>
+  <si>
+    <t>Number of people who gain access to water services (powering water pumps, water distributions, waste management, etc.).  </t>
+  </si>
+  <si>
+    <t>Education Services</t>
+  </si>
+  <si>
+    <t>Number of people who gain access to education services through clean energy systems (including students, teachers, etc.) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of MJ saved from transport and e-mobility interventions (e.g., electric vehicles, charging stations, etc.)  </t>
+  </si>
+  <si>
+    <t>Energy Efficiency Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of MJ saved from energy efficiency interventions (e.g., building efficiency, industries, etc.)  </t>
+  </si>
+  <si>
+    <t>Energy Infrastructure Services</t>
+  </si>
+  <si>
+    <t>Number of people who benefits from energy infrastructure interventions (streetlight, transmission, and distribution lines, etc.) </t>
+  </si>
+  <si>
+    <t>Access to other service (electric vehicles, industries efficiency etc.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Financing support </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Support for the development of market ecosystem </t>
+  </si>
+  <si>
+    <t>Medium Enterprises</t>
+  </si>
+  <si>
+    <t>Support for the development of medium enterprises in the energy transition market</t>
+  </si>
+  <si>
+    <t>Support for the development of small enterprises in the energy transition market</t>
+  </si>
+  <si>
+    <t>Number of people who benefits from training for enterprises on the energy business and energy finance. </t>
+  </si>
+  <si>
+    <t>Entrepreneurship Training</t>
+  </si>
+  <si>
+    <t>Training for enterprises on the energy business is assumed to result in at least 100 direct beneficiaries</t>
+  </si>
+  <si>
+    <t>Market Intervention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volume of investment (US dollars) leverage removing barriers to private and public investment in clean, reliable, affordable, and sustainable energy solutions and energy efficiency for social infrastructure, productive use of electricity and other services </t>
+  </si>
+  <si>
+    <t>Campaign Participant</t>
+  </si>
+  <si>
+    <t>Individuals who participate in advocacy and campaign on energy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of people supported by policy and regulatory framework development on clean, affordable, and sustainable energy </t>
+  </si>
+  <si>
+    <t>Any other type of beneficiary (please specify justification in Notes)</t>
   </si>
 </sst>
 </file>
@@ -252,12 +382,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -328,6 +464,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -349,7 +498,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -451,17 +600,6 @@
         <color rgb="FF000000"/>
       </left>
       <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -490,137 +628,193 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -629,14 +823,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -953,21 +1162,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FB8CF27-2FE9-4C89-944F-63AF2575BE71}">
-  <dimension ref="A1:S10"/>
+  <dimension ref="A1:AE10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="10" width="19.5703125" style="2"/>
+    <col min="1" max="7" width="19.5703125" style="2"/>
+    <col min="8" max="8" width="6.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="19.5703125" style="2"/>
     <col min="11" max="11" width="19.5703125" style="18"/>
-    <col min="12" max="13" width="19.5703125" style="7"/>
+    <col min="12" max="12" width="19.5703125" style="7"/>
+    <col min="13" max="13" width="4.28515625" style="7" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="19.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:31">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -995,406 +1207,571 @@
       <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="J1" s="33" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="Q1" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="R1" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="S1" s="50" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" ht="183" customHeight="1">
-      <c r="A2" s="25">
+      <c r="T1" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="50" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" ht="321">
+      <c r="A2" s="38">
         <v>122398</v>
       </c>
-      <c r="B2" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="28" t="s">
-        <v>20</v>
+      <c r="B2" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>22</v>
       </c>
       <c r="D2" s="23">
         <v>50000</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H2" s="13">
         <v>163</v>
       </c>
-      <c r="I2" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="35" t="s">
+      <c r="I2" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="22" t="s">
+      <c r="J2" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="14"/>
-      <c r="N2" s="16" t="s">
+      <c r="K2" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="16" t="s">
+      <c r="L2" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16" t="s">
+      <c r="M2" s="37"/>
+      <c r="N2" s="52" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" ht="121.5">
-      <c r="A3" s="26"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="23">
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="53"/>
+      <c r="W2" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="X2" s="14"/>
+      <c r="Y2" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z2" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA2" s="37"/>
+      <c r="AB2" s="16"/>
+      <c r="AC2" s="16"/>
+      <c r="AD2" s="16"/>
+      <c r="AE2" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" ht="121.5">
+      <c r="A3" s="25"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="42">
         <v>50000</v>
       </c>
-      <c r="E3" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="19" t="s">
+      <c r="E3" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43">
+        <v>30</v>
+      </c>
+      <c r="I3" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="34"/>
+      <c r="K3" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="37"/>
+      <c r="N3" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="53"/>
+      <c r="T3" s="37"/>
+      <c r="U3" s="53"/>
+      <c r="W3" s="22"/>
+      <c r="X3" s="14"/>
+      <c r="Y3" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13">
-        <v>30</v>
-      </c>
-      <c r="I3" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="J3" s="38"/>
-      <c r="K3" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="L3" s="22"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="O3" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="91.5">
-      <c r="A4" s="26"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="29"/>
+      <c r="Z3" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA3" s="37"/>
+      <c r="AB3" s="16"/>
+      <c r="AC3" s="16"/>
+      <c r="AD3" s="16"/>
+      <c r="AE3" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" ht="91.5">
+      <c r="A4" s="25"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="27"/>
       <c r="D4" s="23">
         <v>4999</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="13">
         <v>77</v>
       </c>
-      <c r="I4" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="J4" s="38"/>
-      <c r="K4" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="L4" s="22"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="O4" s="16" t="s">
+      <c r="I4" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="34"/>
+      <c r="K4" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-    </row>
-    <row r="5" spans="1:19" ht="76.5">
-      <c r="A5" s="26"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="29"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="37"/>
+      <c r="S4" s="53"/>
+      <c r="T4" s="37"/>
+      <c r="U4" s="53"/>
+      <c r="W4" s="22"/>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z4" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA4" s="37"/>
+      <c r="AB4" s="16"/>
+      <c r="AC4" s="16"/>
+      <c r="AD4" s="16"/>
+      <c r="AE4" s="16"/>
+    </row>
+    <row r="5" spans="1:31" ht="76.5">
+      <c r="A5" s="25"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="27"/>
       <c r="D5" s="23">
         <v>4990</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="13">
         <v>110</v>
       </c>
-      <c r="I5" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5" s="38"/>
-      <c r="K5" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="L5" s="22"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="O5" s="16" t="s">
+      <c r="I5" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="34"/>
+      <c r="K5" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="L5" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
-    </row>
-    <row r="6" spans="1:19" ht="106.5">
-      <c r="A6" s="26"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="29"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="37"/>
+      <c r="S5" s="53"/>
+      <c r="T5" s="37"/>
+      <c r="U5" s="53"/>
+      <c r="W5" s="22"/>
+      <c r="X5" s="14"/>
+      <c r="Y5" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z5" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA5" s="37"/>
+      <c r="AB5" s="16"/>
+      <c r="AC5" s="16"/>
+      <c r="AD5" s="16"/>
+      <c r="AE5" s="16"/>
+    </row>
+    <row r="6" spans="1:31" ht="106.5">
+      <c r="A6" s="25"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="27"/>
       <c r="D6" s="23">
         <v>3992</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="13">
         <v>402</v>
       </c>
-      <c r="I6" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="J6" s="38"/>
-      <c r="K6" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="L6" s="22"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="O6" s="16" t="s">
+      <c r="I6" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="J6" s="34"/>
+      <c r="K6" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="L6" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="16"/>
-    </row>
-    <row r="7" spans="1:19" ht="60.75">
-      <c r="A7" s="26"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="29"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="37"/>
+      <c r="S6" s="53"/>
+      <c r="T6" s="37"/>
+      <c r="U6" s="53"/>
+      <c r="W6" s="22"/>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z6" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA6" s="37"/>
+      <c r="AB6" s="16"/>
+      <c r="AC6" s="16"/>
+      <c r="AD6" s="16"/>
+      <c r="AE6" s="16"/>
+    </row>
+    <row r="7" spans="1:31" ht="60.75">
+      <c r="A7" s="25"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="27"/>
       <c r="D7" s="23">
         <v>4997</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G7" s="13"/>
       <c r="H7" s="13">
         <v>400</v>
       </c>
-      <c r="I7" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="J7" s="38"/>
-      <c r="K7" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="L7" s="22"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="O7" s="16" t="s">
+      <c r="I7" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" s="34"/>
+      <c r="K7" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="L7" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="16"/>
-    </row>
-    <row r="8" spans="1:19" ht="91.5">
-      <c r="A8" s="26"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="29"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="O7" s="37"/>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="37"/>
+      <c r="R7" s="37"/>
+      <c r="S7" s="53"/>
+      <c r="T7" s="37"/>
+      <c r="U7" s="53"/>
+      <c r="W7" s="22"/>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z7" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA7" s="37"/>
+      <c r="AB7" s="16"/>
+      <c r="AC7" s="16"/>
+      <c r="AD7" s="16"/>
+      <c r="AE7" s="16"/>
+    </row>
+    <row r="8" spans="1:31" ht="91.5">
+      <c r="A8" s="25"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="27"/>
       <c r="D8" s="23">
         <v>50000</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G8" s="13"/>
       <c r="H8" s="13">
         <v>14</v>
       </c>
-      <c r="I8" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="J8" s="38"/>
-      <c r="K8" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="L8" s="22"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="O8" s="16" t="s">
+      <c r="I8" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="J8" s="34"/>
+      <c r="K8" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="L8" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="137.25">
-      <c r="A9" s="26"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="29"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="37"/>
+      <c r="R8" s="37"/>
+      <c r="S8" s="53"/>
+      <c r="T8" s="37"/>
+      <c r="U8" s="53"/>
+      <c r="W8" s="22"/>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z8" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA8" s="37"/>
+      <c r="AB8" s="16"/>
+      <c r="AC8" s="16"/>
+      <c r="AD8" s="16"/>
+      <c r="AE8" s="16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" ht="137.25">
+      <c r="A9" s="25"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="27"/>
       <c r="D9" s="23">
         <v>50000</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G9" s="13"/>
       <c r="H9" s="13">
         <v>14</v>
       </c>
-      <c r="I9" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="J9" s="38"/>
-      <c r="K9" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="L9" s="22"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="O9" s="16" t="s">
+      <c r="I9" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9" s="34"/>
+      <c r="K9" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="L9" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="106.5">
-      <c r="A10" s="27"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="30"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="O9" s="37"/>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="37"/>
+      <c r="R9" s="37"/>
+      <c r="S9" s="53"/>
+      <c r="T9" s="37"/>
+      <c r="U9" s="53"/>
+      <c r="W9" s="22"/>
+      <c r="X9" s="14"/>
+      <c r="Y9" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z9" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA9" s="37"/>
+      <c r="AB9" s="16"/>
+      <c r="AC9" s="16"/>
+      <c r="AD9" s="16"/>
+      <c r="AE9" s="16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" ht="106.5">
+      <c r="A10" s="26"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="28"/>
       <c r="D10" s="23">
         <v>4900</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G10" s="13"/>
       <c r="H10" s="13">
         <v>15</v>
       </c>
-      <c r="I10" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="J10" s="39"/>
-      <c r="K10" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="L10" s="22"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="O10" s="16" t="s">
+      <c r="I10" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="J10" s="35"/>
+      <c r="K10" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="L10" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="16"/>
-      <c r="S10" s="16"/>
+      <c r="M10" s="37"/>
+      <c r="N10" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="O10" s="37"/>
+      <c r="P10" s="37"/>
+      <c r="Q10" s="37"/>
+      <c r="R10" s="37"/>
+      <c r="S10" s="53"/>
+      <c r="T10" s="37"/>
+      <c r="U10" s="53"/>
+      <c r="W10" s="22"/>
+      <c r="X10" s="14"/>
+      <c r="Y10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z10" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA10" s="37"/>
+      <c r="AB10" s="16"/>
+      <c r="AC10" s="16"/>
+      <c r="AD10" s="16"/>
+      <c r="AE10" s="16"/>
     </row>
   </sheetData>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R10" xr:uid="{4B78D332-1485-4A2A-B8D4-10AA957FE2BD}">
+  <dataValidations count="13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD2:AD10" xr:uid="{4B78D332-1485-4A2A-B8D4-10AA957FE2BD}">
       <formula1>"Electricity Access, Energy Efficiency, Renewable EnergyEnergy Infrastructure,   Transport, Digital &amp; Data, Clean Cooking, Decarbonization, Hydrogen, Off-Grid, On-Grid"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q10" xr:uid="{1AA1A4BC-D39F-4894-BE62-DB60334617FE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2:AC10 Q2:Q10" xr:uid="{1AA1A4BC-D39F-4894-BE62-DB60334617FE}">
       <formula1>"NDC Support, National Strategy, Legal Framework,Incentives and Support, Government Capacity-Building, Carbon Pricing and Monitoring, Financing Model, Business Model"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P10" xr:uid="{F85F5BB7-E841-4EE2-B5A4-AB1F891F5256}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB2:AB10" xr:uid="{F85F5BB7-E841-4EE2-B5A4-AB1F891F5256}">
       <formula1>" AMP, PUDC, Solar4Health, Action Opportunities, Italy UNDP Energy Partnership"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O10" xr:uid="{FD80936E-4835-4962-B0C8-215240FD0E55}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2:Z10" xr:uid="{FD80936E-4835-4962-B0C8-215240FD0E55}">
       <formula1>"Electricity Access, Energy Efficiency, Clean Cooking, Renewable Energy"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N10" xr:uid="{456A911B-0E42-4EBB-87AB-8F7318D0BA96}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2:Y10 N2:N10" xr:uid="{456A911B-0E42-4EBB-87AB-8F7318D0BA96}">
       <formula1>"Accelerating just energy transition, Close the gap on energy access, Scale up energy finance"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2:AA10" xr:uid="{574FBEC4-F4D1-456E-BE3F-A3CA83F84E52}">
+      <formula1>"Tier 1, Tier 2, Tier 3"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P10" xr:uid="{7FCBA540-EE41-4691-B84B-42934A1A0AFD}">
+      <formula1>"AMP, PUDC, Solar4Health, Action Opportunities, Italy UNDP Energy Partnership"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O10" xr:uid="{C72FBC00-846F-46E5-91B0-FF859A8608EA}">
+      <formula1>"Electricity Access, Energy Efficiency, Clean Cooking, Renewable Energy, Overall"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L10" xr:uid="{0FF9DF8F-273B-480C-A0C9-66CB6BD51E8F}">
+      <formula1>"Non-VF, VF"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M10" xr:uid="{6E72F0AA-E7D0-4234-928A-36C6773191C5}">
+      <formula1>"Finance, Gender, Efficiency, Just, Health"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T10" xr:uid="{9D429E18-B821-4D42-A827-57EDE4AB6B51}">
+      <formula1>"National, Regional, City, Community"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R10" xr:uid="{B4C33EDF-6E6F-49D3-AFE7-DB4B2D21C33F}">
+      <formula1>"Electricity Access, Energy Efficiency, Renewable Energy, Infrastructure,  Transport, Digital &amp; Data, Clean Cooking, Decarbonization, Hydrogen, Off-Grid, On-Grid, Research &amp; Innovation, Grant &amp; Investment"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S10" xr:uid="{E16927F3-0721-4DBD-B128-1F14F81622E0}">
+      <formula1>"Solar, Wind, Bioenergy, Hydro, Geothermal, Waste, Some Sources, Other, Unknown"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -1402,6 +1779,18 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{40912E9C-520A-40CD-811A-4AA0A69A4FC2}">
+          <x14:formula1>
+            <xm:f>'Beneficiary Categories'!$A$2:$A$22</xm:f>
+          </x14:formula1>
+          <xm:sqref>E2:E10</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1456,13 +1845,13 @@
         <v>10</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="M1" s="8" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="O1" s="8" t="s">
         <v>13</v>
@@ -1485,45 +1874,45 @@
         <v>122398</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="42"/>
+        <v>21</v>
+      </c>
+      <c r="C2" s="56"/>
       <c r="D2" s="12">
         <v>50000</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H2" s="13">
         <v>163</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="41" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="J2" s="55" t="s">
+        <v>27</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" s="40" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="L2" s="54" t="s">
+        <v>31</v>
       </c>
       <c r="M2" s="14"/>
       <c r="N2" s="16" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="O2" s="16" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="P2" s="16" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="Q2" s="16"/>
       <c r="R2" s="16"/>
@@ -1532,37 +1921,37 @@
     <row r="3" spans="1:19" ht="121.5">
       <c r="A3" s="20"/>
       <c r="B3" s="21"/>
-      <c r="C3" s="42"/>
+      <c r="C3" s="56"/>
       <c r="D3" s="12">
         <v>50000</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G3" s="13"/>
       <c r="H3" s="13">
         <v>30</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="J3" s="41"/>
+        <v>37</v>
+      </c>
+      <c r="J3" s="55"/>
       <c r="K3" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="L3" s="40"/>
+        <v>38</v>
+      </c>
+      <c r="L3" s="54"/>
       <c r="M3" s="14"/>
       <c r="N3" s="16" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="O3" s="16" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="P3" s="16" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="Q3" s="16"/>
       <c r="R3" s="16"/>
@@ -1571,35 +1960,35 @@
     <row r="4" spans="1:19" ht="91.5">
       <c r="A4" s="20"/>
       <c r="B4" s="21"/>
-      <c r="C4" s="42"/>
+      <c r="C4" s="56"/>
       <c r="D4" s="12">
         <v>4999</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="13">
         <v>77</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="J4" s="41"/>
+        <v>41</v>
+      </c>
+      <c r="J4" s="55"/>
       <c r="K4" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="L4" s="40"/>
+        <v>42</v>
+      </c>
+      <c r="L4" s="54"/>
       <c r="M4" s="14"/>
       <c r="N4" s="16"/>
       <c r="O4" s="16" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="P4" s="16" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="Q4" s="16"/>
       <c r="R4" s="16"/>
@@ -1608,35 +1997,35 @@
     <row r="5" spans="1:19" ht="76.5">
       <c r="A5" s="20"/>
       <c r="B5" s="21"/>
-      <c r="C5" s="42"/>
+      <c r="C5" s="56"/>
       <c r="D5" s="12">
         <v>4990</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="13">
         <v>110</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5" s="41"/>
+        <v>44</v>
+      </c>
+      <c r="J5" s="55"/>
       <c r="K5" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="L5" s="40"/>
+        <v>45</v>
+      </c>
+      <c r="L5" s="54"/>
       <c r="M5" s="14"/>
       <c r="N5" s="16"/>
       <c r="O5" s="16" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="P5" s="16" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="Q5" s="16"/>
       <c r="R5" s="16"/>
@@ -1645,35 +2034,35 @@
     <row r="6" spans="1:19" ht="106.5">
       <c r="A6" s="20"/>
       <c r="B6" s="21"/>
-      <c r="C6" s="42"/>
+      <c r="C6" s="56"/>
       <c r="D6" s="12">
         <v>3992</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="13">
         <v>402</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="J6" s="41"/>
+        <v>47</v>
+      </c>
+      <c r="J6" s="55"/>
       <c r="K6" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="L6" s="40"/>
+        <v>48</v>
+      </c>
+      <c r="L6" s="54"/>
       <c r="M6" s="14"/>
       <c r="N6" s="16"/>
       <c r="O6" s="16" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="P6" s="16" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="Q6" s="16"/>
       <c r="R6" s="16"/>
@@ -1682,35 +2071,35 @@
     <row r="7" spans="1:19" ht="60.75">
       <c r="A7" s="20"/>
       <c r="B7" s="21"/>
-      <c r="C7" s="42"/>
+      <c r="C7" s="56"/>
       <c r="D7" s="12">
         <v>4997</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G7" s="13"/>
       <c r="H7" s="13">
         <v>400</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="J7" s="41"/>
+        <v>49</v>
+      </c>
+      <c r="J7" s="55"/>
       <c r="K7" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="L7" s="40"/>
+        <v>50</v>
+      </c>
+      <c r="L7" s="54"/>
       <c r="M7" s="14"/>
       <c r="N7" s="16"/>
       <c r="O7" s="16" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="P7" s="16" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="Q7" s="16"/>
       <c r="R7" s="16"/>
@@ -1719,37 +2108,37 @@
     <row r="8" spans="1:19" ht="91.5">
       <c r="A8" s="20"/>
       <c r="B8" s="21"/>
-      <c r="C8" s="42"/>
+      <c r="C8" s="56"/>
       <c r="D8" s="12">
         <v>50000</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G8" s="13"/>
       <c r="H8" s="13">
         <v>14</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="J8" s="41"/>
+        <v>52</v>
+      </c>
+      <c r="J8" s="55"/>
       <c r="K8" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="L8" s="40"/>
+        <v>38</v>
+      </c>
+      <c r="L8" s="54"/>
       <c r="M8" s="14"/>
       <c r="N8" s="16" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="O8" s="16" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="P8" s="16" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="Q8" s="16"/>
       <c r="R8" s="16"/>
@@ -1758,37 +2147,37 @@
     <row r="9" spans="1:19" ht="137.25">
       <c r="A9" s="20"/>
       <c r="B9" s="21"/>
-      <c r="C9" s="42"/>
+      <c r="C9" s="56"/>
       <c r="D9" s="12">
         <v>50000</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G9" s="13"/>
       <c r="H9" s="13">
         <v>14</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="J9" s="41"/>
+        <v>54</v>
+      </c>
+      <c r="J9" s="55"/>
       <c r="K9" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="L9" s="40"/>
+        <v>55</v>
+      </c>
+      <c r="L9" s="54"/>
       <c r="M9" s="14"/>
       <c r="N9" s="16" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="O9" s="16" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="P9" s="16" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="Q9" s="16"/>
       <c r="R9" s="16"/>
@@ -1797,35 +2186,35 @@
     <row r="10" spans="1:19" ht="106.5">
       <c r="A10" s="20"/>
       <c r="B10" s="21"/>
-      <c r="C10" s="42"/>
+      <c r="C10" s="56"/>
       <c r="D10" s="12">
         <v>4900</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G10" s="13"/>
       <c r="H10" s="13">
         <v>15</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="J10" s="41"/>
+        <v>57</v>
+      </c>
+      <c r="J10" s="55"/>
       <c r="K10" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="L10" s="40"/>
+        <v>58</v>
+      </c>
+      <c r="L10" s="54"/>
       <c r="M10" s="14"/>
       <c r="N10" s="16"/>
       <c r="O10" s="16" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="P10" s="16" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="Q10" s="16"/>
       <c r="R10" s="16"/>
@@ -1904,208 +2293,208 @@
         <v>9</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="183" customHeight="1">
-      <c r="A2" s="43">
+      <c r="A2" s="57">
         <v>122398</v>
       </c>
-      <c r="B2" s="45" t="s">
-        <v>19</v>
+      <c r="B2" s="59" t="s">
+        <v>21</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="6">
         <v>50000</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="47" t="s">
-        <v>56</v>
+        <v>61</v>
+      </c>
+      <c r="F2" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="61" t="s">
+        <v>64</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="J2" s="49" t="s">
-        <v>25</v>
+        <v>65</v>
+      </c>
+      <c r="J2" s="63" t="s">
+        <v>27</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="121.5">
-      <c r="A3" s="44"/>
-      <c r="B3" s="46"/>
+      <c r="A3" s="58"/>
+      <c r="B3" s="60"/>
       <c r="C3" s="3"/>
       <c r="D3" s="6">
         <v>50000</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
+        <v>67</v>
+      </c>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
       <c r="I3" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J3" s="49"/>
+        <v>37</v>
+      </c>
+      <c r="J3" s="63"/>
       <c r="K3" s="2" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="91.5">
-      <c r="A4" s="44"/>
-      <c r="B4" s="46"/>
+      <c r="A4" s="58"/>
+      <c r="B4" s="60"/>
       <c r="C4" s="3"/>
       <c r="D4" s="6">
         <v>4999</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
+        <v>61</v>
+      </c>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
       <c r="I4" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="J4" s="49"/>
+        <v>41</v>
+      </c>
+      <c r="J4" s="63"/>
       <c r="K4" s="2" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="76.5">
-      <c r="A5" s="44"/>
-      <c r="B5" s="46"/>
+      <c r="A5" s="58"/>
+      <c r="B5" s="60"/>
       <c r="C5" s="3"/>
       <c r="D5" s="6">
         <v>4990</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
+        <v>43</v>
+      </c>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
       <c r="I5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5" s="49"/>
+        <v>44</v>
+      </c>
+      <c r="J5" s="63"/>
       <c r="K5" s="2" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="106.5">
-      <c r="A6" s="44"/>
-      <c r="B6" s="46"/>
+      <c r="A6" s="58"/>
+      <c r="B6" s="60"/>
       <c r="C6" s="3"/>
       <c r="D6" s="6">
         <v>3992</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
+        <v>62</v>
+      </c>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
       <c r="I6" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="J6" s="49"/>
+        <v>47</v>
+      </c>
+      <c r="J6" s="63"/>
       <c r="K6" s="2" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="60.75">
-      <c r="A7" s="44"/>
-      <c r="B7" s="46"/>
+      <c r="A7" s="58"/>
+      <c r="B7" s="60"/>
       <c r="C7" s="3"/>
       <c r="D7" s="6">
         <v>4997</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
+        <v>62</v>
+      </c>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
       <c r="I7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J7" s="49"/>
+        <v>49</v>
+      </c>
+      <c r="J7" s="63"/>
       <c r="K7" s="2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="91.5">
-      <c r="A8" s="44"/>
-      <c r="B8" s="46"/>
+      <c r="A8" s="58"/>
+      <c r="B8" s="60"/>
       <c r="C8" s="3"/>
       <c r="D8" s="6">
         <v>50000</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
+        <v>35</v>
+      </c>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
       <c r="I8" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="J8" s="49"/>
+        <v>52</v>
+      </c>
+      <c r="J8" s="63"/>
       <c r="K8" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="137.25">
-      <c r="A9" s="44"/>
-      <c r="B9" s="46"/>
+      <c r="A9" s="58"/>
+      <c r="B9" s="60"/>
       <c r="C9" s="3"/>
       <c r="D9" s="6">
         <v>50000</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
+        <v>62</v>
+      </c>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
       <c r="I9" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="J9" s="49"/>
+        <v>54</v>
+      </c>
+      <c r="J9" s="63"/>
       <c r="K9" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="106.5">
-      <c r="A10" s="44"/>
-      <c r="B10" s="46"/>
+      <c r="A10" s="58"/>
+      <c r="B10" s="60"/>
       <c r="C10" s="3"/>
       <c r="D10" s="6">
         <v>4900</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
+        <v>35</v>
+      </c>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
       <c r="I10" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="J10" s="49"/>
+        <v>57</v>
+      </c>
+      <c r="J10" s="63"/>
       <c r="K10" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2122,7 +2511,210 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62E5E596-E377-4D31-93FE-D35419D28F22}">
+  <dimension ref="A1:B22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection sqref="A1:B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="52.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="45.75">
+      <c r="A2" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30.75">
+      <c r="A4" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="47" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="30.75">
+      <c r="A5" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="91.5">
+      <c r="A6" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="47" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="45.75">
+      <c r="A7" s="64" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="47" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="45.75">
+      <c r="A8" s="64" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" s="47" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="45.75">
+      <c r="A9" s="64" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" s="47" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="30.75">
+      <c r="A10" s="64" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="65" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="30.75">
+      <c r="A11" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11" s="65" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="45.75">
+      <c r="A12" s="64" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12" s="47" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="30.75">
+      <c r="A13" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="65" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="64" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" s="65" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="30.75">
+      <c r="A15" s="64" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" s="65" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="30.75">
+      <c r="A16" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="65" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="30.75">
+      <c r="A17" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="47" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30.75">
+      <c r="A18" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="B18" s="65" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="76.5">
+      <c r="A19" s="64" t="s">
+        <v>105</v>
+      </c>
+      <c r="B19" s="65" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30.75">
+      <c r="A20" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="B20" s="65" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="45.75">
+      <c r="A21" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="66" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="30.75">
+      <c r="A22" s="64" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="65" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
@@ -2131,15 +2723,6 @@
     <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2392,11 +2975,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54CB41BE-882E-42A9-B905-2DB3A3C09E48}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4AEB4956-B0F7-4F9B-96FB-12F8150DB89F}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4AEB4956-B0F7-4F9B-96FB-12F8150DB89F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54CB41BE-882E-42A9-B905-2DB3A3C09E48}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
